--- a/biology/Neurosciences/Connectome/Connectome.xlsx
+++ b/biology/Neurosciences/Connectome/Connectome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le connectome est un plan complet des connexions neuronales d'un cerveau.
 La production et l'étude des connectomes est la connectomique. À l'échelle microscopique, elle décrit la disposition des neurones et des synapses dans tout ou partie du système nerveux d'un organisme. À l'échelle "macroscopique", elle étudie la connectivité fonctionnelle et structurelle entre toutes les aires corticales et les structures sous-corticales.
@@ -512,7 +524,9 @@
           <t>Origine, utilisations et définition du terme « connectome »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2005, le Dr Olaf Sporns à l'Université de l'Indiana et le Dr Patric Hagmann de l'hôpital universitaire de Lausanne ont proposé simultanément et indépendamment le terme « connectome » pour désigner le plan des connexions neuronales d'un cerveau.
 Ce mot est directement inspiré de l'effort fourni pour séquencer le code génétique humain : construire un génome.
@@ -545,7 +559,9 @@
           <t>Connectome humain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Financé par l'Institut national de la santé des États-Unis, le Human Connectome Project (en) (« Projet du connectome humain ») cherche à produire un plan du réseau de neurones de cerveaux d'humains adultes en bonne santé.
 </t>
@@ -576,11 +592,13 @@
           <t>Connectome animal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le connectome d'espèces animales, par exemple d'insectes[1], peut être étudié pour lui-même ou comme modèle animal. On a ainsi reconstruit toutes les connexions neuronales et synaptiques d'une espèce modèle classique, le nématode Caenorhabditis elegans[2],[3] (un ver rond). On a aussi déchiffré des connectomes partiels de la rétine[4] et du cortex visuel primaire[5] de la souris.
-La contrôlabilité des systèmes complexes a fait l'objet d'études offrant un cadre mathématique pour explorer la nature des liens susceptibles d'exister entre structure et fonction des réseaux biologiques, sociaux et technologiques[6],[7],[8]. Jusqu'en 2016, ces principes de contrôle étaient surtout connus par la théorie, mais rarement par des preuves expérimentales de leur validité. De telles preuves sont peu à peu apportées par des expériences utilisant le nématode C. elegans en observant l'effet de l'ablation au laser de certains neurones sur le comportement locomoteur de l'animal. Il devient possible de mieux associer un certain nombre de classes neuronales à certains mouvements et comportements ou fonctions[9].
-Le connectome complet — synapse par synapse — est établi pour trois organismes comportant plusieurs centaines de neurones cérébraux (le nématode C. elegans en 2013[10], la larve de l'ascidie Ciona intestinalis en 2016[11] et l'annélide marin Platynereis dumerilii en 2020[12]), puis en 2023 pour la larve de la drosophile  Drosophila melanogaster (3 016 neurones, 548 000 synapses)[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le connectome d'espèces animales, par exemple d'insectes, peut être étudié pour lui-même ou comme modèle animal. On a ainsi reconstruit toutes les connexions neuronales et synaptiques d'une espèce modèle classique, le nématode Caenorhabditis elegans, (un ver rond). On a aussi déchiffré des connectomes partiels de la rétine et du cortex visuel primaire de la souris.
+La contrôlabilité des systèmes complexes a fait l'objet d'études offrant un cadre mathématique pour explorer la nature des liens susceptibles d'exister entre structure et fonction des réseaux biologiques, sociaux et technologiques. Jusqu'en 2016, ces principes de contrôle étaient surtout connus par la théorie, mais rarement par des preuves expérimentales de leur validité. De telles preuves sont peu à peu apportées par des expériences utilisant le nématode C. elegans en observant l'effet de l'ablation au laser de certains neurones sur le comportement locomoteur de l'animal. Il devient possible de mieux associer un certain nombre de classes neuronales à certains mouvements et comportements ou fonctions.
+Le connectome complet — synapse par synapse — est établi pour trois organismes comportant plusieurs centaines de neurones cérébraux (le nématode C. elegans en 2013, la larve de l'ascidie Ciona intestinalis en 2016 et l'annélide marin Platynereis dumerilii en 2020), puis en 2023 pour la larve de la drosophile  Drosophila melanogaster (3 016 neurones, 548 000 synapses).
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Le connectome à différentes échelles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un connectome optimal serait la cartographie précise des connexions de chaque neurone ce qui est techniquement très long, très coûteux et nécessite le stockage et l'utilisation d'une quantité volumineuse de données.
 Un cerveau humain contient au moins 1010 neurones liés par 1014 connexions synaptiques. Par comparaison, le nombre de paires de bases dans un génome humain est de 3 × 109. On peut imaginer des approches à différentes échelles faites de manière parallèle.
